--- a/cna_metrics.xlsx
+++ b/cna_metrics.xlsx
@@ -534,25 +534,25 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I2" t="n">
         <v>74</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="K2" t="n">
         <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>89.18918918918919</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -672,25 +672,25 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="I5" t="n">
         <v>155</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="K5" t="n">
         <v>38</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -764,13 +764,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I7" t="n">
         <v>26</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="I16" t="n">
         <v>333</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="K16" t="n">
         <v>32</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>96.69669669669669</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>96.875</v>
       </c>
     </row>
     <row r="17">
@@ -1224,25 +1224,25 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="I17" t="n">
         <v>37</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="K17" t="n">
         <v>24</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -1316,25 +1316,25 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="I19" t="n">
         <v>213</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="K19" t="n">
         <v>49</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>61.97183098591549</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -1362,25 +1362,25 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2897</v>
       </c>
       <c r="I20" t="n">
         <v>2487</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>2445</v>
       </c>
       <c r="K20" t="n">
         <v>456</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>98.31121833534378</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>99.12280701754386</v>
       </c>
     </row>
     <row r="21">
@@ -1408,25 +1408,25 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I21" t="n">
         <v>44</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="K21" t="n">
         <v>9</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>93.18181818181817</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -1454,25 +1454,25 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I22" t="n">
         <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K22" t="n">
         <v>15</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -1592,13 +1592,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I25" t="n">
         <v>9</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>3</v>
@@ -1650,13 +1650,13 @@
         <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -1730,13 +1730,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I28" t="n">
         <v>17</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K28" t="n">
         <v>2</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>82.35294117647058</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I29" t="n">
         <v>182</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K29" t="n">
         <v>29</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.395604395604396</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -1960,13 +1960,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>2</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -2236,25 +2236,25 @@
         <v>91</v>
       </c>
       <c r="H39" t="n">
-        <v>85</v>
+        <v>526</v>
       </c>
       <c r="I39" t="n">
         <v>488</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>422</v>
       </c>
       <c r="K39" t="n">
         <v>110</v>
       </c>
       <c r="L39" t="n">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="M39" t="n">
-        <v>0.4098360655737705</v>
+        <v>86.47540983606558</v>
       </c>
       <c r="N39" t="n">
-        <v>75.45454545454545</v>
+        <v>94.54545454545455</v>
       </c>
     </row>
     <row r="40">
@@ -2328,25 +2328,25 @@
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
         <v>2</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
@@ -2374,25 +2374,25 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
         <v>5</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
@@ -2420,25 +2420,25 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I43" t="n">
         <v>6</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K43" t="n">
         <v>3</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
@@ -2512,25 +2512,25 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I45" t="n">
         <v>39</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K45" t="n">
         <v>2</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
@@ -2880,25 +2880,25 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I53" t="n">
         <v>87</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K53" t="n">
         <v>15</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>39.08045977011494</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>66.66666666666666</v>
       </c>
     </row>
     <row r="54">
@@ -2926,13 +2926,13 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I54" t="n">
         <v>29</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -2941,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>82.75862068965517</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -2972,25 +2972,25 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="I55" t="n">
         <v>97</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="K55" t="n">
         <v>8</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>96.90721649484536</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56">
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I59" t="n">
         <v>16</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K59" t="n">
         <v>2</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60">
@@ -3248,25 +3248,25 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I61" t="n">
         <v>42</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="K61" t="n">
         <v>6</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>92.85714285714286</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62">
@@ -4352,25 +4352,25 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
         <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" t="n">
         <v>3</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
     </row>
     <row r="86">
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -4410,13 +4410,13 @@
         <v>4</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87">
@@ -4812,25 +4812,25 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I95" t="n">
         <v>26</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K95" t="n">
         <v>7</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>88.46153846153845</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>71.42857142857143</v>
       </c>
     </row>
     <row r="96">
@@ -6468,25 +6468,25 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="I131" t="n">
         <v>125</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="K131" t="n">
         <v>4</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M131" t="n">
-        <v>0</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="N131" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132">
@@ -6514,13 +6514,13 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I132" t="n">
         <v>10</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="M132" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N132" t="n">
         <v>0</v>
@@ -7296,13 +7296,13 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I149" t="n">
         <v>24</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="K149" t="n">
         <v>0</v>
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="M149" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N149" t="n">
         <v>0</v>
@@ -7480,25 +7480,25 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I153" t="n">
         <v>23</v>
       </c>
       <c r="J153" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K153" t="n">
         <v>2</v>
       </c>
       <c r="L153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M153" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N153" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="154">
@@ -7802,13 +7802,13 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I160" t="n">
         <v>7</v>
       </c>
       <c r="J160" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K160" t="n">
         <v>0</v>
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="M160" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N160" t="n">
         <v>0</v>
@@ -8676,13 +8676,13 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I179" t="n">
         <v>11</v>
       </c>
       <c r="J179" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K179" t="n">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="M179" t="n">
-        <v>0</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="N179" t="n">
         <v>0</v>
@@ -8814,13 +8814,13 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I182" t="n">
         <v>3</v>
       </c>
       <c r="J182" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K182" t="n">
         <v>0</v>
@@ -8829,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="M182" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N182" t="n">
         <v>0</v>
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>3143</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -9130,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -9174,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -9218,7 +9218,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -9262,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -9306,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -9394,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -9438,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>4019</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -9614,7 +9614,7 @@
         <v>416</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -9702,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -9746,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -9922,7 +9922,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -10054,7 +10054,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -10142,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -10186,7 +10186,7 @@
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -10230,7 +10230,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -10318,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -10450,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -10494,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -10626,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -10714,7 +10714,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -10758,7 +10758,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -10802,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -10890,7 +10890,7 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -10934,7 +10934,7 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -11022,7 +11022,7 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -11110,7 +11110,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -11198,7 +11198,7 @@
         <v>0</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -11330,7 +11330,7 @@
         <v>0</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -11374,7 +11374,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -11418,7 +11418,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -11462,7 +11462,7 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -11594,7 +11594,7 @@
         <v>9</v>
       </c>
       <c r="H245" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -11638,7 +11638,7 @@
         <v>0</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -11726,7 +11726,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -11770,7 +11770,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -11814,7 +11814,7 @@
         <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -11858,7 +11858,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -11902,7 +11902,7 @@
         <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -11946,7 +11946,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -11990,7 +11990,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -12078,7 +12078,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -12122,7 +12122,7 @@
         <v>0</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -12166,7 +12166,7 @@
         <v>3</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -12254,7 +12254,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -12298,7 +12298,7 @@
         <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -12342,7 +12342,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -12386,7 +12386,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -12430,7 +12430,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -12518,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -12562,7 +12562,7 @@
         <v>0</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -12606,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -12650,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -12694,7 +12694,7 @@
         <v>0</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -12738,7 +12738,7 @@
         <v>0</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -12782,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -12826,7 +12826,7 @@
         <v>0</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -12914,7 +12914,7 @@
         <v>0</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -12958,7 +12958,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -13002,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -13046,7 +13046,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -13134,7 +13134,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -13178,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -13310,7 +13310,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -13354,7 +13354,7 @@
         <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -13442,7 +13442,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -13530,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -13574,7 +13574,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -13618,7 +13618,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -13662,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -13706,7 +13706,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -13750,7 +13750,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -13794,7 +13794,7 @@
         <v>0</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -13882,7 +13882,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>369</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -13926,7 +13926,7 @@
         <v>0</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -13970,7 +13970,7 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -14014,7 +14014,7 @@
         <v>0</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -14058,7 +14058,7 @@
         <v>0</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -14146,7 +14146,7 @@
         <v>0</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -14234,7 +14234,7 @@
         <v>0</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -14410,7 +14410,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -14498,7 +14498,7 @@
         <v>0</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -14674,7 +14674,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -14718,7 +14718,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -14762,7 +14762,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -14806,7 +14806,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -14850,7 +14850,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -14894,7 +14894,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>973</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -14938,7 +14938,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -14982,7 +14982,7 @@
         <v>0</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -15026,7 +15026,7 @@
         <v>0</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -15246,7 +15246,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -15334,7 +15334,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -15378,7 +15378,7 @@
         <v>0</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -15466,7 +15466,7 @@
         <v>0</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -15510,7 +15510,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -15598,7 +15598,7 @@
         <v>0</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -15642,7 +15642,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -15686,7 +15686,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -15730,7 +15730,7 @@
         <v>0</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -15862,7 +15862,7 @@
         <v>0</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -15906,7 +15906,7 @@
         <v>0</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -15950,7 +15950,7 @@
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -15994,7 +15994,7 @@
         <v>0</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -16038,7 +16038,7 @@
         <v>0</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -16082,7 +16082,7 @@
         <v>0</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -16126,7 +16126,7 @@
         <v>0</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -16170,7 +16170,7 @@
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -16214,7 +16214,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -16258,7 +16258,7 @@
         <v>0</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -16302,7 +16302,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -16346,7 +16346,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -16390,7 +16390,7 @@
         <v>0</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -16434,7 +16434,7 @@
         <v>0</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -16478,7 +16478,7 @@
         <v>0</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -16522,7 +16522,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -16566,7 +16566,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -16698,7 +16698,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -16742,7 +16742,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -16786,7 +16786,7 @@
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -16830,7 +16830,7 @@
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -16874,7 +16874,7 @@
         <v>0</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -16962,7 +16962,7 @@
         <v>0</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -17006,7 +17006,7 @@
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -17050,7 +17050,7 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -17138,7 +17138,7 @@
         <v>0</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -17182,7 +17182,7 @@
         <v>0</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -17226,7 +17226,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -17314,7 +17314,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -17358,7 +17358,7 @@
         <v>0</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -17402,7 +17402,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -17490,7 +17490,7 @@
         <v>0</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -17578,7 +17578,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -17622,7 +17622,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -17666,7 +17666,7 @@
         <v>0</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -17710,7 +17710,7 @@
         <v>0</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -17754,7 +17754,7 @@
         <v>0</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -17798,7 +17798,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -17842,7 +17842,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -17886,7 +17886,7 @@
         <v>0</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -17930,7 +17930,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -17974,7 +17974,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -18018,7 +18018,7 @@
         <v>0</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -18062,7 +18062,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -18106,7 +18106,7 @@
         <v>0</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -18150,7 +18150,7 @@
         <v>0</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -18194,7 +18194,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -18282,7 +18282,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -18326,7 +18326,7 @@
         <v>0</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -18370,7 +18370,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -18414,7 +18414,7 @@
         <v>0</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -18458,7 +18458,7 @@
         <v>0</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -18502,7 +18502,7 @@
         <v>0</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -18546,7 +18546,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -18590,7 +18590,7 @@
         <v>0</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -18678,7 +18678,7 @@
         <v>0</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -18722,7 +18722,7 @@
         <v>0</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -18766,7 +18766,7 @@
         <v>0</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -18810,7 +18810,7 @@
         <v>0</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -18854,7 +18854,7 @@
         <v>0</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -18898,7 +18898,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -18942,7 +18942,7 @@
         <v>0</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -18986,7 +18986,7 @@
         <v>0</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -19030,7 +19030,7 @@
         <v>0</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -19074,7 +19074,7 @@
         <v>0</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -19118,7 +19118,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -19206,7 +19206,7 @@
         <v>0</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -19250,7 +19250,7 @@
         <v>0</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -19294,7 +19294,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -19338,7 +19338,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -19382,7 +19382,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -19426,7 +19426,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -19514,7 +19514,7 @@
         <v>0</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -19558,7 +19558,7 @@
         <v>0</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -19602,7 +19602,7 @@
         <v>0</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -19646,7 +19646,7 @@
         <v>0</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -19734,7 +19734,7 @@
         <v>0</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -19778,7 +19778,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -19866,7 +19866,7 @@
         <v>0</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -19910,7 +19910,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -19954,7 +19954,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -19998,7 +19998,7 @@
         <v>0</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -20042,7 +20042,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -20086,7 +20086,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -20130,7 +20130,7 @@
         <v>0</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -20174,7 +20174,7 @@
         <v>0</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -20306,7 +20306,7 @@
         <v>0</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -20394,7 +20394,7 @@
         <v>0</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -20438,7 +20438,7 @@
         <v>0</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -20482,7 +20482,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
